--- a/경영통계학2019011033김재용.xlsx
+++ b/경영통계학2019011033김재용.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jukim\OneDrive\바탕 화면\대학생활\2023년 3학년 1학기\경영통계학\기말레포트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57B958A-6337-4442-9A19-9DE87DCED94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB880CE-E4C5-4B03-B07A-CFF41735FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="첫데이터" sheetId="1" r:id="rId1"/>
@@ -1900,7 +1900,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6C67CA4-1CEB-4B1C-BD0B-52ECE9A6454C}" type="CELLRANGE">
+                    <a:fld id="{BC650CE2-474D-4681-92A3-3EC4697A862A}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1909,7 +1909,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{71AFFB43-DF6B-494E-80A4-CC35AB6F8268}" type="YVALUE">
+                    <a:fld id="{2B27F198-B014-4ECB-B08A-43AF2E3BCD66}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -1942,7 +1942,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{008C9523-6A04-4811-9575-7429E1CF55AE}" type="CELLRANGE">
+                    <a:fld id="{656442E5-81A0-4E07-84D5-517589564DE3}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1951,7 +1951,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{7D246983-A096-45C7-8546-3571BD1D75F8}" type="YVALUE">
+                    <a:fld id="{F88F6D2F-91F4-4606-A5B9-3F64EBF5193F}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -1984,7 +1984,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E09DE0C0-5187-436C-AC57-29A3357D7017}" type="CELLRANGE">
+                    <a:fld id="{F9D0E514-D6F1-4955-88C2-8CDA8F68BCF4}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1993,7 +1993,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{F8F87BF4-054F-44F8-B660-5D371F1AE929}" type="YVALUE">
+                    <a:fld id="{FCA6A481-991C-4C4C-A861-8B353936227B}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2032,7 +2032,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B48AC4DE-B6DD-473E-BA63-99B26A8D53C4}" type="CELLRANGE">
+                    <a:fld id="{FE472117-17F7-4EB5-961E-1E2348A2452D}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2041,7 +2041,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{FD4C231B-C6B4-4A02-AABF-07AEBF1EB603}" type="YVALUE">
+                    <a:fld id="{550DB7C9-D586-4AD7-9192-482211DFC13F}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2079,7 +2079,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67684D6F-8896-4278-A0EB-474D73678171}" type="CELLRANGE">
+                    <a:fld id="{F673F058-48F6-4BF1-8F3C-D4A3E25DD7BA}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2088,7 +2088,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{A1E13786-A761-46F9-A1CD-1984498661E5}" type="YVALUE">
+                    <a:fld id="{39EC9C95-EFBC-45FB-A520-10A97CC8981B}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2120,7 +2120,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9FDA908-8758-46E7-9D4B-F60B64BE4E55}" type="CELLRANGE">
+                    <a:fld id="{529A3F72-C4E3-4805-9F05-3736840824E9}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2129,7 +2129,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{0147DE76-9E61-4A3E-B76E-80B2B9239E0D}" type="YVALUE">
+                    <a:fld id="{AF80B084-1A5A-4001-BFC2-84AD086D8275}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2168,7 +2168,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B055CF6-6B23-4DC5-9A06-CC3E519B0C7C}" type="CELLRANGE">
+                    <a:fld id="{4B2F3DBE-0783-43F5-B4AA-64FDA15ECE9D}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2177,7 +2177,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{3AFAFDE1-2BFD-4EFE-8678-059E857F44AF}" type="YVALUE">
+                    <a:fld id="{E907FD04-5E66-4DFC-BBCF-DB46227EACA0}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2209,7 +2209,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63697C80-CAEC-4E68-9290-4899F8EFD7AB}" type="CELLRANGE">
+                    <a:fld id="{828263C3-C38D-4A6A-B555-42852DB74E32}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2218,7 +2218,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{90841263-EF48-4091-944B-1B2A904B52B5}" type="YVALUE">
+                    <a:fld id="{74EE4272-1504-4F2F-8B6A-612E9CBAAD2C}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2251,7 +2251,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC90C4AC-3BCC-487C-99DE-5D22BBDA88E3}" type="CELLRANGE">
+                    <a:fld id="{8BB68580-1E8D-4E75-B2DA-4271FED1BB08}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2260,7 +2260,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{50D0F9EF-68A5-4572-832B-756028D42951}" type="YVALUE">
+                    <a:fld id="{2127D998-D09F-48D4-8B50-0F1163ECD3C4}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2293,7 +2293,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51DC09B2-794D-4506-B6B9-9233D67DF14C}" type="CELLRANGE">
+                    <a:fld id="{779730BF-3EAC-4ED0-AD9D-34EDDEFAD348}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2302,7 +2302,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{E0E43D61-F165-47CC-A913-1D79C13728A0}" type="YVALUE">
+                    <a:fld id="{D7AAE75B-C7E7-4C07-8657-99FA1F8A2AE9}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2335,7 +2335,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8CE19D93-81D1-4AE8-87CA-4E514B786287}" type="CELLRANGE">
+                    <a:fld id="{C016BAC3-3913-4E8C-81D1-C525B150652F}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2344,7 +2344,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C63C01E8-7732-4026-92C3-5787CF6B5CC1}" type="YVALUE">
+                    <a:fld id="{03B25472-8D81-4DBB-81F0-4CC8783A78BD}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2377,7 +2377,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{482B3822-B7E5-44F1-B5F9-2E20EB675E46}" type="CELLRANGE">
+                    <a:fld id="{ABDC345C-208F-40C0-9D48-8E8AC23AFCAB}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2386,7 +2386,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{913C7E62-236C-421B-91B5-1BF3CAD9797B}" type="YVALUE">
+                    <a:fld id="{B6E3583F-5895-4F9D-8B75-C9DDF7ECF956}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2425,7 +2425,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6ACAEA32-9FC5-4899-9A11-2A4A3F8EE928}" type="CELLRANGE">
+                    <a:fld id="{AED0779A-6E33-48BB-9923-F3028E9AB965}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2434,7 +2434,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{96607B96-3B71-44A1-8539-60E91B5F0649}" type="YVALUE">
+                    <a:fld id="{1DFF40CE-A725-4896-9A07-8E6C3B445DFB}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2472,7 +2472,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{710B667F-2019-40A7-8ACC-E6CA992FD0CF}" type="CELLRANGE">
+                    <a:fld id="{5010E503-CD84-4D3D-B88E-F9213ED535A0}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2481,7 +2481,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{9F6BBD3B-2204-476D-A77C-BE406CF8E387}" type="YVALUE">
+                    <a:fld id="{3D5CBFBA-1A9A-47B1-8212-124057853526}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2519,7 +2519,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BFA8837A-B20D-4A98-BDBB-17EB3E55EDDC}" type="CELLRANGE">
+                    <a:fld id="{C9617A4F-DA1E-456E-B24C-680284E63084}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2528,7 +2528,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{9C17CDFF-CAB3-4DC9-B54F-E56CBB10F123}" type="YVALUE">
+                    <a:fld id="{EAE8669F-873B-4E7F-BD31-4D1F14CEF338}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2566,7 +2566,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0118BBF4-C37F-4520-B932-0DEB3538EC28}" type="CELLRANGE">
+                    <a:fld id="{C852A4D2-0BE3-4F1E-A8B5-71CDC41198DB}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2575,7 +2575,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{3F096459-3EAF-4AD6-B3AD-300E2F71AF12}" type="YVALUE">
+                    <a:fld id="{88AFA25F-3FB9-4752-803D-120CE6266026}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2607,7 +2607,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33C7B33E-4F43-4659-A3E2-F61D6BA70147}" type="CELLRANGE">
+                    <a:fld id="{07E50747-FEE5-4050-B31F-23ED52D7880A}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2616,7 +2616,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{CBC570B3-E447-4264-B05A-18DA76B3F182}" type="YVALUE">
+                    <a:fld id="{26498AB6-1B0C-4E63-BA81-478DC7D02B90}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2655,7 +2655,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A085168E-B5B8-4FC9-8648-63D43CA4A086}" type="CELLRANGE">
+                    <a:fld id="{3307B528-40BA-4856-B090-2B1BF89D4ACB}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2664,7 +2664,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{0710BFFD-B112-413C-AC99-464BF7FF860F}" type="YVALUE">
+                    <a:fld id="{A9F5C369-A1E3-4218-A65B-4E4A43B7DE14}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2702,7 +2702,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B05382AE-E4AF-4C6B-8BEA-32FB7687BA4D}" type="CELLRANGE">
+                    <a:fld id="{7E01A782-5506-4438-B219-1BBF1A592E9B}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2711,7 +2711,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C5F79D21-72E8-4983-BF9B-D6360B2ABA58}" type="YVALUE">
+                    <a:fld id="{ED12490D-14C6-4A72-8781-0C0BC4AD9071}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2749,7 +2749,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59986D47-1293-4040-B7F1-225F620B2BD2}" type="CELLRANGE">
+                    <a:fld id="{BDCACEDE-DD88-440A-A498-CEFFC2FA380D}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2758,7 +2758,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{3A7F7B5A-4A26-43E8-BB53-1A696BAB020C}" type="YVALUE">
+                    <a:fld id="{386327A0-9C2E-4152-9545-CA89211FF486}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2790,7 +2790,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4CECB3EB-5234-49AE-B343-9007E24FE50B}" type="CELLRANGE">
+                    <a:fld id="{6EA917C8-5DED-400E-8D20-53B8A030F477}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2799,7 +2799,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{553C05B8-E50D-46AC-AD32-20BE254FE795}" type="YVALUE">
+                    <a:fld id="{B6642921-EE1D-405C-90BC-A2A056F6E6F0}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2832,7 +2832,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92E2E187-B6E1-4AD5-90DD-8AFFFFF32168}" type="CELLRANGE">
+                    <a:fld id="{117AF1F7-1977-46BD-A8AE-2F5836291256}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2841,7 +2841,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{08A29469-10BE-4A6E-B184-73F11E76496B}" type="YVALUE">
+                    <a:fld id="{7DD7520C-1E1F-4014-861C-118D6DD12330}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2880,7 +2880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{728CCB81-C964-48AA-9505-155BF089B8DC}" type="CELLRANGE">
+                    <a:fld id="{D3050B37-82DE-4A0D-89E5-947E9D8230A8}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2889,7 +2889,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{53605965-6A49-4D51-9AA0-1CED6365026B}" type="YVALUE">
+                    <a:fld id="{5C229D25-5E86-4644-BAEF-2B7B4ABC3841}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2921,7 +2921,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C7C5330-9A9D-4637-A720-B04BFB46401E}" type="CELLRANGE">
+                    <a:fld id="{F0EAE4C3-3F08-41AD-8D4C-33F225D72E46}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2930,7 +2930,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{207BD149-2B99-4EBE-BAE7-25A8C4C40E12}" type="YVALUE">
+                    <a:fld id="{ED9F6563-4D84-40BF-8617-89FCE6BE2AE7}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -2963,7 +2963,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D770872B-90A1-42EA-B6E6-C9668BB116E4}" type="CELLRANGE">
+                    <a:fld id="{DAABBB5B-3AE1-434D-8D35-899913840878}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2972,7 +2972,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{3F2C2CA7-BF08-4CA4-91F2-83A7ED8F0C45}" type="YVALUE">
+                    <a:fld id="{2B73D4D6-A190-4589-87CC-2C861231C4B7}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3011,7 +3011,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09DF3ECA-0489-4BC7-A3E1-7AA40573AD6C}" type="CELLRANGE">
+                    <a:fld id="{D4DEA146-23E0-46FF-BB3B-70CCA0AD2C3C}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3020,7 +3020,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C6AF53B2-A882-4DB6-A20B-3783FCEB9CBB}" type="YVALUE">
+                    <a:fld id="{110E6A9F-FC57-4ABC-BB7E-7A4662D4F542}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3052,7 +3052,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7EC9EFE-B77A-4061-B286-114780880649}" type="CELLRANGE">
+                    <a:fld id="{78A2C6CA-AFE0-442A-851B-0071BBBDF419}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3061,7 +3061,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{07D7CEEA-9A00-42B7-8C2D-E9E64624EF58}" type="YVALUE">
+                    <a:fld id="{2117BC57-8B4B-4589-B553-3E9DAC886FDF}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3100,7 +3100,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2E1C4DD-48D0-41A2-B825-821F169107E7}" type="CELLRANGE">
+                    <a:fld id="{1E99AE26-7C6A-49DD-B887-7008CB83D2F5}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3109,7 +3109,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{51FADA61-8621-43CB-8BCD-5EE9E4511274}" type="YVALUE">
+                    <a:fld id="{0E5C565E-1B5A-4C00-86AE-F1EF265773CB}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3141,7 +3141,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C071FB71-F9AB-4AE7-BB6E-59E9D0E5336E}" type="CELLRANGE">
+                    <a:fld id="{C7B1987A-1F99-4ED2-A075-2CF8A8222941}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3150,7 +3150,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{896EB023-F7C6-408A-8523-942A67D251C5}" type="YVALUE">
+                    <a:fld id="{9C25904D-DEAC-4925-AD8A-0757BE25F04F}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3189,7 +3189,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F301442E-34F8-4411-AC7C-9D2BD8CC0DA3}" type="CELLRANGE">
+                    <a:fld id="{BB56DF66-5C91-407F-AA6F-CC56417F1C17}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3198,7 +3198,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{3DF3193B-E626-48CA-9EC1-1D5B2C74C4B2}" type="YVALUE">
+                    <a:fld id="{5D643BA0-AB20-450C-8970-D6A3E56D3513}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3236,7 +3236,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{462AA784-2799-4639-A195-CDDC33A7C8CF}" type="CELLRANGE">
+                    <a:fld id="{E2269415-B058-4295-BF2E-5A9B668CC3E4}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3245,7 +3245,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C63DA67D-D133-4DE8-BF45-EB7C4C4F101D}" type="YVALUE">
+                    <a:fld id="{B9C047DB-A364-40CE-B4AE-9511A789B697}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3277,7 +3277,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24223453-528E-4F62-ACDB-C4E62ABF4165}" type="CELLRANGE">
+                    <a:fld id="{D12FCDE7-74D0-4A31-9077-AA5DCFCB93FF}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3286,7 +3286,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{9EF245FB-5914-4CDD-9E25-A1CE1D021A29}" type="YVALUE">
+                    <a:fld id="{5B197C4A-9DD5-4BEB-92AA-5277E991A4C3}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3325,7 +3325,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FCF275EB-7D1E-4596-BB1D-633355440542}" type="CELLRANGE">
+                    <a:fld id="{09F5E629-6DC4-425A-8E41-BAB6AB979AC5}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3334,7 +3334,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{8E924330-F040-49E3-AA33-9FDBF4D1CFE4}" type="YVALUE">
+                    <a:fld id="{2A4498FF-0375-4F01-B4FE-11CC55088169}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3372,7 +3372,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33C6E7D6-9E08-4383-A7C3-B7775D3FAD5D}" type="CELLRANGE">
+                    <a:fld id="{D0A42602-94DA-4774-ABC8-8B38A7D8CD6B}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3381,7 +3381,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{9B0BD518-9CB5-45E9-8BF5-7EA3024684E3}" type="YVALUE">
+                    <a:fld id="{8AC6BEDF-1B9A-4538-BFC8-73767277A125}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3413,7 +3413,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4ACA64AE-D324-47E7-8DA6-A8FB494C5A67}" type="CELLRANGE">
+                    <a:fld id="{59BBA970-523D-48DF-9FF6-D4BB95756A48}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3422,7 +3422,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{53DA850D-91B4-441A-965B-F03227703986}" type="YVALUE">
+                    <a:fld id="{2AD5C7A3-EDF9-4F66-970E-9F6814E7A81E}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3455,7 +3455,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9433077F-C54B-473D-96FD-1D7915F073EA}" type="CELLRANGE">
+                    <a:fld id="{58796A47-895E-4238-8868-A0375354346A}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3464,7 +3464,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{FE806854-30FD-4F40-A24B-2C9BE7C20681}" type="YVALUE">
+                    <a:fld id="{9724E63E-B9DD-49ED-B182-4B5C4A22EDE4}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3503,7 +3503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD666D1C-FBCF-44C6-97E9-668E3EE81EE3}" type="CELLRANGE">
+                    <a:fld id="{9B4D6E6F-D391-4242-AE1D-896868DF2598}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3512,7 +3512,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{CD71F3E9-3FF5-49F5-881F-2250FF3581D9}" type="YVALUE">
+                    <a:fld id="{9721CC5D-C3EC-4B0F-83E3-66A68D59BC54}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3544,7 +3544,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07624DB0-DEFA-4E7B-8DFA-D7DEF504FAC5}" type="CELLRANGE">
+                    <a:fld id="{AF0769F8-84AD-4685-AD3E-DFE8EB42FD0B}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3553,7 +3553,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{A53D5B81-D45A-43A3-8BF8-957FC354A110}" type="YVALUE">
+                    <a:fld id="{69EE96CE-77E6-459E-9DCA-73E1AE518C9B}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3586,7 +3586,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC817BF8-BF9C-47AD-8846-F84DF58F88F7}" type="CELLRANGE">
+                    <a:fld id="{47AE6CBA-BABB-4FD2-B82E-DDF6B0B40693}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3595,7 +3595,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{4B3BC85D-4DA8-44D0-9B60-83D314169AA3}" type="YVALUE">
+                    <a:fld id="{4F66A643-954B-4C75-B77E-85322A3002E0}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3628,7 +3628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7DDCA614-9959-4348-961E-6EDCD35BC546}" type="CELLRANGE">
+                    <a:fld id="{BE578582-83DE-4772-B07F-5FCC18C7B6F7}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3637,7 +3637,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{25619E6C-491C-4762-AF38-3446CE1B3AF8}" type="YVALUE">
+                    <a:fld id="{F45E05FB-3DB8-4C1E-AC79-13DBFA1A185E}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3670,7 +3670,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{743F5BD2-E30D-4105-9887-3F18BCB735F4}" type="CELLRANGE">
+                    <a:fld id="{7214D5BA-916A-41DC-B491-A0005F5A2756}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3679,7 +3679,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{32F8F279-EB11-4A7F-99EC-6769A903C0B3}" type="YVALUE">
+                    <a:fld id="{7D62E3E0-F819-4F12-A173-9858515F3D20}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3712,7 +3712,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{172C82EA-BC56-40C6-84E1-7EEFFDE3F66A}" type="CELLRANGE">
+                    <a:fld id="{D6A34DF3-6FA0-44E8-8643-57872B04AF00}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3721,7 +3721,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{6B3D1BE2-D180-4C93-B6E1-056E4DDD89AB}" type="YVALUE">
+                    <a:fld id="{C7BD1271-044D-46CD-9F15-287C22AF1031}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3754,7 +3754,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D9FCF973-2B0A-4B9D-B873-FFE56E280BD9}" type="CELLRANGE">
+                    <a:fld id="{8F9E406A-66AD-4BD1-AA63-BC992699CBF2}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3763,7 +3763,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{9A6899C4-0B19-4E6F-8CB2-E07F4E5BFA7D}" type="YVALUE">
+                    <a:fld id="{FBCBD2EE-1D03-4E35-9D68-11439CA11C52}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3796,7 +3796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D88F82FB-3D5A-4F89-9502-01D8CE33414E}" type="CELLRANGE">
+                    <a:fld id="{7177F67F-F106-4423-8571-48CF9FC3E651}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3805,7 +3805,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{CC2AD19F-6BC1-4555-A38A-670A93A51419}" type="YVALUE">
+                    <a:fld id="{B8B14D07-6152-4129-8F36-25A8C556A37A}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3844,7 +3844,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC9BC3C7-23EC-417C-9E8F-6148CE37187B}" type="CELLRANGE">
+                    <a:fld id="{E9E839CA-7E10-4D43-AEEE-3C8FF36B0504}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3853,7 +3853,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{5EDEB101-895D-4472-9DD8-FBBD488211D3}" type="YVALUE">
+                    <a:fld id="{A51FAFAA-EDBB-46DE-8682-CE0607C0D00C}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3891,7 +3891,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6602DE98-C5E2-46E8-A271-3E92B936FD20}" type="CELLRANGE">
+                    <a:fld id="{33CF178C-CEE4-411E-95DC-83F48C09A94E}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3900,7 +3900,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{99429D91-2148-455A-889E-85B05DF41AC0}" type="YVALUE">
+                    <a:fld id="{10C034FF-94B2-4CA3-B980-AE63BB192E75}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3932,7 +3932,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5EB5CB0-3966-4F3A-AB8E-BC9C5B3FE579}" type="CELLRANGE">
+                    <a:fld id="{0D69AD5F-D7E1-4769-991A-405084FBE8EF}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3941,7 +3941,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{BE174F6C-13F4-4CA5-BEF2-5B51A0E0BF9A}" type="YVALUE">
+                    <a:fld id="{DDA69E19-E300-42CA-AF77-F5CDEBD9FD8D}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -3974,7 +3974,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8BDACFCE-0DD5-4A86-96E9-46F13B380240}" type="CELLRANGE">
+                    <a:fld id="{05E74431-6495-438B-BBC2-1A6304A94FFA}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3983,7 +3983,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{0BA86C30-3377-46CB-9560-B75900312A57}" type="YVALUE">
+                    <a:fld id="{FEE9FDE6-3EC9-4241-990C-D17EB2E98D14}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -4022,7 +4022,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60D298F3-57E9-4E35-A087-4C39E8F55975}" type="CELLRANGE">
+                    <a:fld id="{D78E9FB7-EAA5-4685-B1E4-35D7D3B2D4F3}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4031,7 +4031,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{29382A01-1C17-4A06-8908-4714C9FF9B7F}" type="YVALUE">
+                    <a:fld id="{270767BB-761F-4C0D-83CF-028A4A0916A7}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -4063,7 +4063,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1FC157C-EFB5-4531-9D8B-82182E277DAE}" type="CELLRANGE">
+                    <a:fld id="{34B1666D-A4DD-43C1-A099-80095939B391}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4072,7 +4072,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{4ADF6BE9-B504-49BC-8001-74283D760941}" type="YVALUE">
+                    <a:fld id="{B8211CAD-56E3-4756-B4CB-836134BBB3B9}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -4111,7 +4111,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43DB8714-EDAE-44BD-A410-C54C71F3888A}" type="CELLRANGE">
+                    <a:fld id="{EB658690-3D7E-45D1-94B9-888CC5F942DA}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4120,7 +4120,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{1D43623D-40C5-4ED5-9056-C9A26D322B65}" type="YVALUE">
+                    <a:fld id="{00E630DD-BC7A-4BB7-9B71-C2509948BC05}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -4158,7 +4158,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D8D38D9-E0C8-49DA-892D-4B913DD9AF49}" type="CELLRANGE">
+                    <a:fld id="{EAE95B1A-C8FC-4B8F-9D27-43955781DB6D}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4167,7 +4167,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{95984C46-9867-4CEE-BF5C-15C2AD68DFB6}" type="YVALUE">
+                    <a:fld id="{8D8A9028-D1F7-4E77-9962-45C8C4A84A83}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -5430,7 +5430,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C724346F-EA41-4473-BF6C-02C691727EC6}" type="CELLRANGE">
+                    <a:fld id="{5E9F2E8C-B650-4AC7-9360-2E5801B3F391}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5439,7 +5439,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{6551AF61-8812-4D03-BCEF-254DC6172206}" type="YVALUE">
+                    <a:fld id="{BA4EC8CA-FCF8-4F33-BB3A-570DFE7A916E}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -5477,7 +5477,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1BB266E2-443C-46F5-9321-EF7C4E606E72}" type="CELLRANGE">
+                    <a:fld id="{A685F347-FE4E-45C8-B201-129E014B14E1}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5486,7 +5486,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{D7AB4C7A-01B9-4E21-9675-F7F583984FC0}" type="YVALUE">
+                    <a:fld id="{8B14ED8F-9B5A-422C-B7B5-EDA7DBBB5E5B}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -5518,7 +5518,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40DD1008-188E-4AEC-B58A-7D5C587C26E1}" type="CELLRANGE">
+                    <a:fld id="{0BFCB01E-FE20-406E-82A3-B044F1D29DE3}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5527,7 +5527,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{8E03D247-8E59-479D-ADB3-1F22B3ED8A11}" type="YVALUE">
+                    <a:fld id="{19BACCE1-D21D-4B57-87D2-B5087E67B311}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -5566,7 +5566,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92047FE1-BE71-4318-8A38-B1A902318B28}" type="CELLRANGE">
+                    <a:fld id="{FE3E3984-7CC1-43B7-983E-CABB9BF2D56E}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5575,7 +5575,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{9F6C46CE-E252-4A8D-8FD4-E1005026B645}" type="YVALUE">
+                    <a:fld id="{10A93614-A892-4BAD-998C-13520B1B9268}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -5607,7 +5607,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B90571F4-D4DE-4488-832C-F6DD35D7DAB0}" type="CELLRANGE">
+                    <a:fld id="{4C23D8EB-E36C-4023-B186-547C9CA7BC1B}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5616,7 +5616,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{2395AA21-7F06-434A-9244-7E50E0152B6C}" type="YVALUE">
+                    <a:fld id="{C40B2BAC-E1F1-42D2-8F32-4DD7959C2C53}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -5649,7 +5649,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10959FF8-EA01-4B1A-A831-9D9C958520AB}" type="CELLRANGE">
+                    <a:fld id="{C7E81D7E-F531-4E63-BA04-9A4D31CC446B}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5658,7 +5658,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C429A661-5395-44C2-9DC4-2F6B835E8635}" type="YVALUE">
+                    <a:fld id="{FCCEF86A-6E8A-4E71-94C3-4023328D427F}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -5691,7 +5691,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38AA9BF2-60D3-48EE-A984-02EE8360E77C}" type="CELLRANGE">
+                    <a:fld id="{0C7A94F9-E0A8-4C20-83A7-B2A28C41E559}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5700,7 +5700,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{F8F8251E-9966-4839-B741-48E34F0A9531}" type="YVALUE">
+                    <a:fld id="{FFDC6473-DF14-43E2-A77B-7A0036BBEB0D}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -5733,7 +5733,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A9690AA-34EC-4CBE-94E3-5E37C5AA83E1}" type="CELLRANGE">
+                    <a:fld id="{B1ACB3F9-90DC-4CA0-84FE-BA95398A7690}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5742,7 +5742,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{B1AD7C60-0C78-4CB7-A245-93C1094B97A4}" type="YVALUE">
+                    <a:fld id="{04271805-E4A0-4C5B-8A51-35CE4745F02D}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -5775,7 +5775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D6CB1CF5-B4A9-4AA6-AD24-BE5C7D3AA021}" type="CELLRANGE">
+                    <a:fld id="{15A82159-A6C6-4B1A-8199-5A08EB5BE708}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5784,7 +5784,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{B9DF9375-D8BB-45BD-A82C-17E9C26CCE42}" type="YVALUE">
+                    <a:fld id="{2202F8B0-0A1B-4CD5-80A9-FE81D5506A6F}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -5823,7 +5823,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87DFC8BE-5B99-423A-B77F-30BA8CC7AFA7}" type="CELLRANGE">
+                    <a:fld id="{99F9C9BA-D743-426F-AB6C-3E75F555AE2C}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5832,7 +5832,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{5B9AFD5F-7BCE-42AE-87D1-53C55F3F1E6B}" type="YVALUE">
+                    <a:fld id="{36570C51-25C7-4750-B3BA-4326168951D9}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -5870,7 +5870,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A63A1B80-27B4-4856-94AB-3A3D7AD32085}" type="CELLRANGE">
+                    <a:fld id="{81E43F7B-6A79-4B9D-8FCD-50ABA7C25BBF}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5879,7 +5879,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{58DEE868-D757-47D8-B77F-8B6B67975A6A}" type="YVALUE">
+                    <a:fld id="{9F62FBA8-C059-44C0-9C09-F45D46ED2FB0}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -5911,7 +5911,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42C604F4-59C0-4732-8475-391F63A6D685}" type="CELLRANGE">
+                    <a:fld id="{C715BF29-71B8-4C06-B5DB-523AC96B01DE}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5920,7 +5920,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{0373B904-CD20-4816-8A63-73B8248455CB}" type="YVALUE">
+                    <a:fld id="{8D380EAB-FC6C-4CD4-A1F4-F46C186D1D97}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -5953,7 +5953,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C8E942D-2692-4E9C-8F33-6EF9B4CCE8D5}" type="CELLRANGE">
+                    <a:fld id="{777521AB-CB05-4F23-89DC-55D23EEF62FD}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5962,7 +5962,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{90541DC7-9907-4904-BF22-E5584BD02932}" type="YVALUE">
+                    <a:fld id="{DADC34FF-44F9-4809-9D05-48652CF4D82E}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -5995,7 +5995,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34684A58-839E-4FA5-B3F8-B9DC36F996BD}" type="CELLRANGE">
+                    <a:fld id="{1FE449A2-63C7-4F21-B284-B81BAF697BFF}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6004,7 +6004,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{56330891-4424-4BD8-92E9-3562C1D6EED6}" type="YVALUE">
+                    <a:fld id="{5308FB87-2915-4E75-B9EF-5651B9EA501A}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6037,7 +6037,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8D159F1-513B-4062-86E2-CAACD0FF5902}" type="CELLRANGE">
+                    <a:fld id="{E42B5235-5AC2-41E8-BF8E-178FF56DB0C2}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6046,7 +6046,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{DB2FC536-867D-494D-96AB-073B72FAFA7B}" type="YVALUE">
+                    <a:fld id="{466C4CF9-44AF-4F51-BAF9-77111EABD343}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6079,7 +6079,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC1D577E-A95F-4E1F-902F-0769C00F9DC7}" type="CELLRANGE">
+                    <a:fld id="{C55F83B4-150C-41E7-A19E-EF739603792A}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6088,7 +6088,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{1C685F10-5052-4269-A320-3FA878E408CE}" type="YVALUE">
+                    <a:fld id="{D729AA9E-3862-4C64-A8AF-B4C491DD36DB}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6121,7 +6121,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DECBB1CB-B8B2-49AF-8DBF-2A5214372699}" type="CELLRANGE">
+                    <a:fld id="{AE81A2B0-1884-4033-B113-D3E81D267D78}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6130,7 +6130,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{6BD117BF-3EFC-4D58-987E-FE45C2746B94}" type="YVALUE">
+                    <a:fld id="{E9E9D520-2AB8-4C05-BDAC-DC3F2642A4B3}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6163,7 +6163,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE481C1A-7A86-4014-9A79-FD8E37245BC1}" type="CELLRANGE">
+                    <a:fld id="{7F97CDD6-00F4-44DA-86ED-EAB11580A0EC}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6172,7 +6172,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{FB860CEE-09A3-4DB1-A757-C87D51458331}" type="YVALUE">
+                    <a:fld id="{481772BE-D513-458E-ACF9-1A22552A4156}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6205,7 +6205,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D1EED0A-9ECD-4D19-86C2-81C77CC5D3D8}" type="CELLRANGE">
+                    <a:fld id="{F34358C8-427B-4FB1-AD11-2BEB96F9C146}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6214,7 +6214,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{1018A5F1-F749-40A5-83B3-9120013A2AB8}" type="YVALUE">
+                    <a:fld id="{18FD010D-C6F1-4EEB-9C02-070F3E7DF599}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6247,7 +6247,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2D3D016-9339-420F-92CE-95501ABAC518}" type="CELLRANGE">
+                    <a:fld id="{8B565114-AFF1-4ABB-8173-376DA18E70FF}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6256,7 +6256,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{551E02B5-B19E-4CC7-B95C-CF84CA5C1F33}" type="YVALUE">
+                    <a:fld id="{A35CD799-2CCD-472D-881F-FBAFD95A0DCB}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6289,7 +6289,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95957494-2CB7-4A4F-B82E-BA3FBEF9DB11}" type="CELLRANGE">
+                    <a:fld id="{ED40F0B5-C310-4276-8383-5DF1C4D5E3E1}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6298,7 +6298,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{51C4D261-FB29-43ED-9DF1-102196147764}" type="YVALUE">
+                    <a:fld id="{73081838-CF59-4DA8-909A-69A18BA17455}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6331,7 +6331,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A842FCD-844A-4CDA-821F-F316574B2CD1}" type="CELLRANGE">
+                    <a:fld id="{DB1E48B5-24CF-469B-B8C1-CC0D07805254}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6340,7 +6340,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C39EB8AB-83E4-4637-BCCE-21BC822B5ADF}" type="YVALUE">
+                    <a:fld id="{8C3CBD85-49BB-48E1-8D07-CF591B42F57C}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6373,7 +6373,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80792307-5A50-48C4-9827-AF85E238DA2C}" type="CELLRANGE">
+                    <a:fld id="{378EDC5B-06D1-4071-9749-932869B29C71}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6382,7 +6382,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{D00C2D91-ACEA-470F-BE2C-CD121BAEEFBA}" type="YVALUE">
+                    <a:fld id="{8950CB40-0764-47D9-8BBD-2E59FEDEE196}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6415,7 +6415,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A5CA8AE-2F22-4D12-B73B-806E95997C33}" type="CELLRANGE">
+                    <a:fld id="{1A59C920-51CF-4C47-A01F-58CC3796F172}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6424,7 +6424,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{7F6C9398-8DD0-421B-87FB-B4B58D058A27}" type="YVALUE">
+                    <a:fld id="{F884AF0C-F7FC-42B2-9226-A5D234891993}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6457,7 +6457,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7F8FE24-8C84-48F9-A327-0B9D84E132C3}" type="CELLRANGE">
+                    <a:fld id="{A4AA72C9-C9D8-435C-B89B-90E3F2F6F309}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6466,7 +6466,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{A5FB4F48-D509-434F-B830-E77C8AF3810E}" type="YVALUE">
+                    <a:fld id="{0A3E5CE2-C245-44E1-B06D-B2C4AFB6287A}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6499,7 +6499,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F42FD90-2D21-4932-9A03-39A4D461C9DD}" type="CELLRANGE">
+                    <a:fld id="{7878027E-535A-46CC-B9C5-EE9252560D9A}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6508,7 +6508,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{53550F12-F95C-40E3-A41E-005D0D36AC60}" type="YVALUE">
+                    <a:fld id="{7409D523-1ABC-4AA8-82CB-AF0F479C6D1B}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6541,7 +6541,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65A068F5-6A82-47DD-91D3-C3149400C970}" type="CELLRANGE">
+                    <a:fld id="{169D2DE4-90A6-4FB0-B750-9BA3CD00964D}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6550,7 +6550,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{00452451-A93A-4233-8445-1D6042216B3F}" type="YVALUE">
+                    <a:fld id="{C504D2DE-BD4C-4045-8AFF-444CBDE8F0D0}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6583,7 +6583,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{001B4385-D51B-4182-B30B-76FABB96D2A9}" type="CELLRANGE">
+                    <a:fld id="{040CAD04-BC56-44BC-8C80-116CFE929025}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6592,7 +6592,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{276BBF17-2545-4FD6-8452-86D2F0FC196B}" type="YVALUE">
+                    <a:fld id="{61795F4F-6BD8-4DBD-A040-389953678E99}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6625,7 +6625,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0EEDF145-8841-4D67-9BB2-9BB45704408C}" type="CELLRANGE">
+                    <a:fld id="{0369A141-8FED-46D8-89C3-EC55DF300B91}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6634,7 +6634,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{9D49CE5E-EF03-467D-AE11-6DD4C1FB41D1}" type="YVALUE">
+                    <a:fld id="{D00A73D5-6128-4914-8841-3FBC80B827F0}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6667,7 +6667,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF20BCC5-79C3-44EE-92D2-DDC279D247E0}" type="CELLRANGE">
+                    <a:fld id="{0403E6E1-240C-4A53-A644-D54931B176C8}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6676,7 +6676,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{2D2445A8-5A18-4FDA-9D99-E4C8AB9934EE}" type="YVALUE">
+                    <a:fld id="{E86F4CDA-B224-4BEB-AB41-BFABD48987F2}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6709,7 +6709,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD0351A4-A714-45C2-BD0E-13F5F90154BF}" type="CELLRANGE">
+                    <a:fld id="{E3397A8F-4D81-4275-8974-BC798F735333}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6718,7 +6718,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{714AAE86-0025-4FDC-9FE7-C833B2D41422}" type="YVALUE">
+                    <a:fld id="{D574910F-449E-454C-A8E8-48053DF2726D}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6757,7 +6757,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5EB422A6-97E5-4C06-93FB-1D388CE2674B}" type="CELLRANGE">
+                    <a:fld id="{04726EF0-CA2A-4279-9713-018EFE3BDB34}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6766,7 +6766,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{2A9CC1F2-DDEB-4875-95DA-E4EAAE320AC2}" type="YVALUE">
+                    <a:fld id="{03F05170-DF6B-4262-A300-B54502654C5E}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6798,7 +6798,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F95E215-5247-4B61-8044-2EAB0A47AE25}" type="CELLRANGE">
+                    <a:fld id="{04BF9022-A64D-472A-B14E-36FDEACE5077}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6807,7 +6807,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{AE204916-80A7-41C2-BF8C-92F3B3459348}" type="YVALUE">
+                    <a:fld id="{01B955F4-FD3F-4A8B-93B2-93F4C3BA52A1}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6840,7 +6840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54F2A936-6CB2-4D86-B191-FA8AA027CDB3}" type="CELLRANGE">
+                    <a:fld id="{1C8E2978-192C-4FE4-8002-AF92D4DF755C}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6849,7 +6849,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C9DCD869-1082-48E6-93F9-1D2918A69F54}" type="YVALUE">
+                    <a:fld id="{4CAE7F42-1AEB-467C-9CD1-8E5A7B3722F6}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6882,7 +6882,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{050AE8A5-3B63-464A-8783-5C3734E34131}" type="CELLRANGE">
+                    <a:fld id="{6FD6C959-C306-4329-BC7B-B3549B9ADDAE}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6891,7 +6891,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{E6AB1615-2451-4D8C-AC3F-88F28FA6A589}" type="YVALUE">
+                    <a:fld id="{FBD55C84-2963-4BB0-889F-23011B658316}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6924,7 +6924,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C34AC07-E741-4235-BFDA-C5A4D1C764D3}" type="CELLRANGE">
+                    <a:fld id="{C1D20B5B-CEA4-42F9-BC28-31BCB8261A38}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6933,7 +6933,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{EFDE48F5-A3B8-4C8E-8894-12C0D5A4BE13}" type="YVALUE">
+                    <a:fld id="{9B371A56-870E-4CFE-97B1-5DC70E2EF536}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -6966,7 +6966,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51D5A297-BA6C-4AE7-901B-29137EBF2C62}" type="CELLRANGE">
+                    <a:fld id="{42BF1B0A-3520-4F1D-8FF3-9A042AF41F8E}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6975,7 +6975,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{BEFB4328-E4B1-4BB0-B3F7-7A2B49DAD9DA}" type="YVALUE">
+                    <a:fld id="{34D2A5E7-E391-416B-9771-879F712219E4}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -7008,7 +7008,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0339D95A-FDD7-4DB0-B5F0-85B90619DC1A}" type="CELLRANGE">
+                    <a:fld id="{26B992E6-B05C-4E56-81FE-0AE525FFE1E1}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7017,7 +7017,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{8ED41F34-F376-427A-B4FF-AFA7609E5775}" type="YVALUE">
+                    <a:fld id="{FEEB8FB0-3961-4910-836C-91C1FC4C9342}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -7056,7 +7056,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{305B825E-2856-4E1A-8BF7-A61814699000}" type="CELLRANGE">
+                    <a:fld id="{55E8E020-E38B-4B68-B0F5-DA44F4FFE579}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7065,7 +7065,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{6FE602B6-C506-421E-8682-9B3D1BDEDB3D}" type="YVALUE">
+                    <a:fld id="{61A8F8E9-2F9D-4FB7-915D-6240FD22BCB4}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -7103,7 +7103,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2E379A6-8D86-4BC5-908D-322CF6D3E635}" type="CELLRANGE">
+                    <a:fld id="{50AB4CD8-FB3B-4A12-A390-494E7210DA73}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7112,7 +7112,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{D45DA51B-2F7E-4129-B240-0210C51B6C3D}" type="YVALUE">
+                    <a:fld id="{56FD8476-A371-4408-9FA9-E379F3435572}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -7150,7 +7150,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F9B9DB0-BDE2-4FE7-AEB1-5FDF59026DD0}" type="CELLRANGE">
+                    <a:fld id="{72391A1F-B6A1-44B4-98BA-CC9AF6653FB1}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7159,7 +7159,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{4EB94B32-3367-46A2-ADF5-47086CAED04E}" type="YVALUE">
+                    <a:fld id="{7F78BDD8-9D73-4F3C-92A0-A33D77363D8E}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -7191,7 +7191,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BEFCEBC3-2900-441B-B806-FDB580F56424}" type="CELLRANGE">
+                    <a:fld id="{5359C785-95B2-48F9-B5AC-F2344A9B9B95}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7200,7 +7200,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{8E363C08-86E7-4AAB-B67F-625B4A67748B}" type="YVALUE">
+                    <a:fld id="{BB200E47-2CDC-4D71-87D1-964EC8730385}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -7233,7 +7233,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CBC5A41D-6208-40AB-AB4B-103221B36EEC}" type="CELLRANGE">
+                    <a:fld id="{E3E6DD81-3D22-4E3E-A4EF-6D8365FEDA02}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7242,7 +7242,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{98A93008-CEFE-420F-9716-689FF9F4FEF6}" type="YVALUE">
+                    <a:fld id="{497CFD2A-F286-4705-B1A4-2BB30182C8AD}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -7275,7 +7275,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{797D0DD8-C9FB-40A8-BD06-8677F955D129}" type="CELLRANGE">
+                    <a:fld id="{A0A5C013-30FA-4D13-811E-406382FCCCA6}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7284,7 +7284,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{99444D3E-47B0-425C-B68B-E483135C7F35}" type="YVALUE">
+                    <a:fld id="{AF3CBA07-965B-430E-B4E3-AE3CD4AE1B3A}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -7317,7 +7317,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4965804-6116-4476-A6CE-D61C17110A46}" type="CELLRANGE">
+                    <a:fld id="{BFBC7BE0-887A-4264-B086-71991CC7A927}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7326,7 +7326,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{B146991D-D25E-42A0-9EF3-0E5194D59C07}" type="YVALUE">
+                    <a:fld id="{E53B6600-7387-4C0F-A60D-F134C59D4F0F}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -7359,7 +7359,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D5CD61F-D200-460B-903A-AE26D09D952A}" type="CELLRANGE">
+                    <a:fld id="{539EE9B0-0887-40B9-AE43-CDEA829D7CBF}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7368,7 +7368,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{31C9F66D-0EEC-4D84-AA0E-6488D6CE5468}" type="YVALUE">
+                    <a:fld id="{4C2F9861-95A4-4A6E-A43E-2E6ECF54C1ED}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -7401,7 +7401,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AFD24A6-D348-4D06-8845-D3D9B075D67B}" type="CELLRANGE">
+                    <a:fld id="{618CA1C3-8248-4E09-91F1-E9D31ACAFF7A}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7410,7 +7410,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{96613881-19C5-4417-97A1-BBADBB0CF4F1}" type="YVALUE">
+                    <a:fld id="{526684AE-7F62-436A-A2DB-8E9BF2868555}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -7443,7 +7443,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FC2A3A0-1E25-48BE-B714-3A7A3B61CFC4}" type="CELLRANGE">
+                    <a:fld id="{E10680CB-C800-4190-B1EF-D2A6999C8EC6}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7452,7 +7452,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C09F2CD8-29A9-4E41-9C4C-5D6EC2D90A66}" type="YVALUE">
+                    <a:fld id="{33E22D50-24AA-45B7-B6E4-C5717023D6C6}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -7485,7 +7485,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34F9DFBD-4CAC-4988-B160-2C237AE1AEEB}" type="CELLRANGE">
+                    <a:fld id="{22D831A6-264F-47F4-A0F9-B6A87A85DE6B}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7494,7 +7494,7 @@
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{5674EDBE-22CC-4062-A6B9-2E19696E0476}" type="YVALUE">
+                    <a:fld id="{0BCD769A-4D8C-4DB0-94B0-11898F16A579}" type="YVALUE">
                       <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -7533,7 +7533,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0939F71E-2268-4FBC-A070-12BFCD383227}" type="CELLRANGE">
+                    <a:fld id="{87BAEA45-32D4-4E20-A316-535D45D20586}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7542,7 +7542,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{BFB3EED1-8001-4BCE-A0B0-02B0F9568CBA}" type="YVALUE">
+                    <a:fld id="{CE5092E6-6D07-4506-B0AB-BDB49A608F7C}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -7580,7 +7580,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33818CEA-02B9-45AA-928A-D4614835086B}" type="CELLRANGE">
+                    <a:fld id="{585CB43A-CD7E-47DC-93FA-429035E8E336}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7589,7 +7589,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{1F1DF97C-0F7C-4848-A698-618C41F0ED69}" type="YVALUE">
+                    <a:fld id="{0035A171-07E3-4DC3-B0E8-6E0AC15B80B9}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -7627,7 +7627,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D0AF561-8261-4CBB-89EF-8541B7864CD7}" type="CELLRANGE">
+                    <a:fld id="{F0629D9C-8B39-4923-8C66-51736283E5AE}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7636,7 +7636,7 @@
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{F90E7D19-252F-44AC-9244-07452AE9A5F2}" type="YVALUE">
+                    <a:fld id="{C1091A1F-488D-439C-811D-40E35BFD4976}" type="YVALUE">
                       <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y 값]</a:t>
@@ -11913,7 +11913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
@@ -13632,7 +13632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48224074-3B7E-4E27-9A61-A3C7C40021DA}">
   <dimension ref="A1:T108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
